--- a/WieringermeerData_LeachateProduction.xlsx
+++ b/WieringermeerData_LeachateProduction.xlsx
@@ -5,18 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f273f673efb9d7e4/Notability - Tjark/Modelling coupled processes CIE4365/Module 1 Intro ^0 modelling Water Balance Landfill/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1baaa37547e5989/Notability/Modelling Coupled Processes for Engineering Applications/Assignment 1/water-balance-G13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_85A4FB9902574AB365607C93F35CC23390AA1985" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B11B191A-E01B-4875-BE17-C6E06B24BF63}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_85A4FB9902574AB365607C93F35CC23390AA1985" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{83F033A6-F236-4757-8F56-06E89019F139}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outflow_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Leachate_Production</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,16 +435,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2758"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
